--- a/outData/companies_screened_2024-11-27.xlsx
+++ b/outData/companies_screened_2024-11-27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FacultyYear3\Licenta\VS\outData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3988EB-A6F3-454C-9B54-6F3B93F3906B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C9AF49-F487-468B-ADCA-773774907A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -2361,12 +2361,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2381,12 +2393,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2692,7 +2707,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,7 +2858,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>696</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2905,7 +2920,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>747</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2967,7 +2982,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>569</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3277,7 +3292,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3339,7 +3354,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3401,7 +3416,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>722</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3649,7 +3664,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3835,7 +3850,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>593</v>
       </c>
       <c r="B19" s="1" t="s">
